--- a/Software Comparador/Calibraciones en curso/2024-02-12_Datos.xlsx
+++ b/Software Comparador/Calibraciones en curso/2024-02-12_Datos.xlsx
@@ -1,114 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Identificación del Bloque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de repeticiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1 inicial  ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2 inicial  ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3 inicial ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4 inicial ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR inicial %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1 final ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2 final  ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3 final  ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4 final ºC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR final %</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,14 +72,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -136,63 +87,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Impresion Bitacora"/>
       <sheetName val="Ident.Bloques a calibrar"/>
@@ -356,75 +369,701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.64"/>
+    <col width="16.91" customWidth="1" style="4" min="1" max="1"/>
+    <col width="15.93" customWidth="1" style="4" min="2" max="2"/>
+    <col width="17.34" customWidth="1" style="4" min="3" max="3"/>
+    <col width="9.75" customWidth="1" style="4" min="9" max="9"/>
+    <col width="9.859999999999999" customWidth="1" style="4" min="12" max="12"/>
+    <col width="9.640000000000001" customWidth="1" style="4" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="str">
-        <f aca="false">CONCATENATE("Valor Nominal Del bloque (",IF('[1]conversion datos'!L30='[1]Patrones LACOMET'!D3,"pulgadas)","mm)"))</f>
-        <v>Valor Nominal Del bloque (mm)</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
+    <row r="1" ht="59" customHeight="1" s="5">
+      <c r="A1" s="6">
+        <f>CONCATENATE("Valor Nominal Del bloque (",IF('[1]conversion datos'!L30='[1]Patrones LACOMET'!D3,"pulgadas)","mm)"))</f>
+        <v/>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Identificación del Bloque </t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Número de repeticiones</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>T1 inicial  ºC</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>T2 inicial  ºC</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>T3 inicial ºC</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>T4 inicial ºC</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>HR inicial %</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>T1 final ºC</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>T2 final  ºC</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>T3 final  ºC</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>T4 final ºC</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="inlineStr">
+        <is>
+          <t>HR final %</t>
+        </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>20.701</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>20.998</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>21.083</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>20.783</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>20.701</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>21.005</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>21.081</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>20.778</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20.679</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.014</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.074</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20.772</v>
+      </c>
+      <c r="H3" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21.024</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.083</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.773</v>
+      </c>
+      <c r="M3" t="n">
+        <v>51.76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Software Comparador/Calibraciones en curso/2024-02-12_Datos.xlsx
+++ b/Software Comparador/Calibraciones en curso/2024-02-12_Datos.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -504,61 +504,229 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>002</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>20.679</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>21.014</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4" t="n">
         <v>21.074</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4" t="n">
         <v>20.772</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4" t="n">
         <v>51.92</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4" t="n">
         <v>20.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4" t="n">
         <v>21.024</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4" t="n">
         <v>21.083</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4" t="n">
         <v>20.773</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4" t="n">
         <v>51.76</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="4" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>20.796</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>21.144</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>20.855</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>20.774</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>21.123</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>21.156</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>20.849</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>20.826</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>21.241</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>21.225</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>20.897</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>56.68</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>20.833</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>21.231</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>56.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21.237</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.911</v>
+      </c>
+      <c r="H6" t="n">
+        <v>56.53</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20.837</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.265</v>
+      </c>
+      <c r="K6" t="n">
+        <v>21.235</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20.912</v>
+      </c>
+      <c r="M6" t="n">
+        <v>56.55</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>

--- a/Software Comparador/Calibraciones en curso/2024-02-12_Datos.xlsx
+++ b/Software Comparador/Calibraciones en curso/2024-02-12_Datos.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -56,6 +56,9 @@
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -71,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,6 +89,12 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -97,7 +106,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -121,6 +130,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -374,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:S500"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -455,6 +467,36 @@
           <t>HR final %</t>
         </is>
       </c>
+      <c r="N1" s="9" t="inlineStr">
+        <is>
+          <t>Patrón #1</t>
+        </is>
+      </c>
+      <c r="O1" s="9" t="inlineStr">
+        <is>
+          <t>Calibrando #1</t>
+        </is>
+      </c>
+      <c r="P1" s="9" t="inlineStr">
+        <is>
+          <t>Patrón #2</t>
+        </is>
+      </c>
+      <c r="Q1" s="9" t="inlineStr">
+        <is>
+          <t>Calibrando #2</t>
+        </is>
+      </c>
+      <c r="R1" s="9" t="inlineStr">
+        <is>
+          <t>Patrón #3</t>
+        </is>
+      </c>
+      <c r="S1" s="9" t="inlineStr">
+        <is>
+          <t>Calibrando #3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -675,552 +717,58 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>003</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>20.84</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4" t="n">
         <v>21.27</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4" t="n">
         <v>21.237</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4" t="n">
         <v>20.911</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4" t="n">
         <v>56.53</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4" t="n">
         <v>20.837</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4" t="n">
         <v>21.265</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4" t="n">
         <v>21.235</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4" t="n">
         <v>20.912</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4" t="n">
         <v>56.55</v>
       </c>
-      <c r="N6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="N6" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
